--- a/融合平台H5.xlsx
+++ b/融合平台H5.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="1680" windowWidth="28160" windowHeight="15840" tabRatio="500"/>
+    <workbookView xWindow="640" yWindow="1120" windowWidth="28160" windowHeight="15840" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="页面" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="151">
   <si>
     <t>分期融合平台需求</t>
     <rPh sb="0" eb="1">
@@ -148,16 +148,10 @@
     <t>3、人脸识别页面</t>
   </si>
   <si>
-    <t>4、二维码页面</t>
-  </si>
-  <si>
     <t>处理</t>
   </si>
   <si>
     <t>1、所有订单</t>
-  </si>
-  <si>
-    <t>2、待处理订单</t>
   </si>
   <si>
     <t>我的</t>
@@ -185,9 +179,6 @@
     <t>3、我的激励</t>
   </si>
   <si>
-    <t>4、设备信息</t>
-  </si>
-  <si>
     <t>用 户</t>
     <rPh sb="0" eb="1">
       <t>yongh</t>
@@ -214,12 +205,6 @@
   </si>
   <si>
     <t>6、协议页面</t>
-  </si>
-  <si>
-    <t>7、芝麻授信</t>
-  </si>
-  <si>
-    <t>8、额度显示页面</t>
   </si>
   <si>
     <t>已授信</t>
@@ -239,18 +224,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>7、分期首页</t>
-  </si>
-  <si>
     <t>8、商品列表页面</t>
   </si>
   <si>
     <t>9、商品详情页面</t>
   </si>
   <si>
-    <t>10、立即办理</t>
-  </si>
-  <si>
     <t>11、套餐详情</t>
   </si>
   <si>
@@ -258,9 +237,6 @@
   </si>
   <si>
     <t>13、短信验证</t>
-  </si>
-  <si>
-    <t>14、取货吗</t>
   </si>
   <si>
     <t>服务</t>
@@ -299,16 +275,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>订单详情</t>
-  </si>
-  <si>
     <t>还款设置</t>
   </si>
   <si>
     <t>帮助中心</t>
-  </si>
-  <si>
-    <t>7、我的额度</t>
   </si>
   <si>
     <t>8、我的信息</t>
@@ -424,10 +394,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5、订单详情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>传勋</t>
     <rPh sb="0" eb="1">
       <t>chuan xun</t>
@@ -464,13 +430,475 @@
   </si>
   <si>
     <t>https://modao.cc/app/vDhPPd1dKgX0XPnqrsl7h0ROPmX9ud7#screen=s1B01A745CC1487319360169</t>
+  </si>
+  <si>
+    <t>页面名称</t>
+    <rPh sb="0" eb="1">
+      <t>ye mian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ming cheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>warmPrompt</t>
+  </si>
+  <si>
+    <t>realName</t>
+  </si>
+  <si>
+    <t>idCard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>confirmation</t>
+  </si>
+  <si>
+    <t>applicationResults</t>
+  </si>
+  <si>
+    <t>riskTip</t>
+  </si>
+  <si>
+    <t>workUpdate</t>
+  </si>
+  <si>
+    <t>updateResults</t>
+  </si>
+  <si>
+    <t>placeOrder</t>
+  </si>
+  <si>
+    <t>ocrCertification</t>
+  </si>
+  <si>
+    <t>faceCertification</t>
+  </si>
+  <si>
+    <t>qrCode</t>
+  </si>
+  <si>
+    <t>4、二维码等待页面</t>
+    <rPh sb="2" eb="3">
+      <t>er wei ma</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>deng dai</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ye mian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>creditWaiting</t>
+  </si>
+  <si>
+    <t>5、业务选择</t>
+    <rPh sb="2" eb="3">
+      <t>ye wu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xuan z</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>businessChoice</t>
+  </si>
+  <si>
+    <t>6、二维码页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>processOrders</t>
+  </si>
+  <si>
+    <t>2、订单详情</t>
+    <rPh sb="2" eb="3">
+      <t>ding dan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xiang q</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderDetail</t>
+  </si>
+  <si>
+    <t>qrCodeList</t>
+  </si>
+  <si>
+    <t>qrCodeDetail</t>
+  </si>
+  <si>
+    <t>my</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>myInformation</t>
+  </si>
+  <si>
+    <t>myMotivation</t>
+  </si>
+  <si>
+    <t>myUpdateDetail</t>
+  </si>
+  <si>
+    <t>myDevice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、我的设备更新结果</t>
+    <rPh sb="2" eb="3">
+      <t>wo</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>she b</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>geng x</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jie g</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5、设备信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inviteCode</t>
+  </si>
+  <si>
+    <t>bankCd</t>
+  </si>
+  <si>
+    <t>addBank</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>creditVip</t>
+  </si>
+  <si>
+    <t>agreement</t>
+  </si>
+  <si>
+    <t>sesameCredit</t>
+  </si>
+  <si>
+    <t>preSesameCredit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7、芝麻授信准备页面</t>
+    <rPh sb="2" eb="3">
+      <t>zhi ma</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shou xin</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhun b</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ye mian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8、芝麻授信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>creditSuccess</t>
+  </si>
+  <si>
+    <t>crediting</t>
+  </si>
+  <si>
+    <t>creditFail</t>
+  </si>
+  <si>
+    <t>9、授信中</t>
+    <rPh sb="2" eb="3">
+      <t>shou xin</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10、授信失败</t>
+    <rPh sb="3" eb="4">
+      <t>shou xin</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shi bai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11、额度显示页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phoneListAll</t>
+  </si>
+  <si>
+    <t>phoneDetail</t>
+  </si>
+  <si>
+    <t>packageList</t>
+  </si>
+  <si>
+    <t>packageDetail</t>
+  </si>
+  <si>
+    <t>confirmOrder</t>
+  </si>
+  <si>
+    <t>sms</t>
+  </si>
+  <si>
+    <t>pickupCode</t>
+  </si>
+  <si>
+    <t>payMent</t>
+  </si>
+  <si>
+    <t>contractPlan</t>
+  </si>
+  <si>
+    <t>paymentRecords</t>
+  </si>
+  <si>
+    <t>preTermination</t>
+  </si>
+  <si>
+    <t>orderList</t>
+  </si>
+  <si>
+    <t>repaySet</t>
+  </si>
+  <si>
+    <t>helper</t>
+  </si>
+  <si>
+    <t>myAgrement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>creditSuccess</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10、套餐列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userLogin</t>
+  </si>
+  <si>
+    <t>同上</t>
+    <rPh sb="0" eb="1">
+      <t>tong shang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>character</t>
+  </si>
+  <si>
+    <t>14、取货码</t>
+    <rPh sb="5" eb="6">
+      <t>ma</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7、我的额度（授信成功页面）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <rPh sb="0" eb="1">
+      <t>bei zhu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单详情vip</t>
+    <rPh sb="0" eb="1">
+      <t>ding dan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xiang q</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单详情信用套餐</t>
+    <rPh sb="0" eb="1">
+      <t>ding dan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xiang q</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xin yong</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>tao c</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单详情红包分期</t>
+    <rPh sb="0" eb="1">
+      <t>ding dan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xiang q</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>hong bao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>fen qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderDetailRed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderDetailCredit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单详情Vip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(用户端、营业员端)：订单页面比较复杂，区分业务单子（红包分期、vip、信用套餐），以及订单的不同状态显示的内容（eg：待授信、授信中、授信成功、已竣工等）</t>
+    <rPh sb="1" eb="2">
+      <t>yong h</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>duan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ying ye</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>yuan gong</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>duan</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ding dan</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ye mian</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>bi jiao</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>fu z</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>qu fen</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ye wu</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>dan zi</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>hong bao</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>fen qi</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>xin yong</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>tao c</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>yi ji</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ding dan d</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>bu tong</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>zhuang tai</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>xian shi</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>de</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>nei rong</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>dai</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>shou xin</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>shou xin</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>shou xin</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>cheng g</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>yi jing</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>jun gong</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>deng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -529,6 +957,41 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="5" tint="0.39997558519241921"/>
+      <name val="DengXian"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="DengXian"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
+      <name val="DengXian"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -544,7 +1007,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -663,11 +1126,52 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -682,9 +1186,11 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -707,17 +1213,53 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1077,40 +1619,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E73"/>
+  <dimension ref="A1:F83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="42.33203125" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" customWidth="1"/>
-    <col min="5" max="5" width="72.6640625" style="17" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" customWidth="1"/>
+    <col min="6" max="6" width="49.6640625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
-      <c r="E1" s="12"/>
-    </row>
-    <row r="2" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="18" t="s">
-        <v>84</v>
+      <c r="E1" s="11"/>
+      <c r="F1" s="12"/>
+    </row>
+    <row r="2" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="17" t="s">
+        <v>73</v>
       </c>
       <c r="D2" s="19"/>
-      <c r="E2" s="20"/>
-    </row>
-    <row r="3" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E2" s="19"/>
+      <c r="F2" s="18"/>
+    </row>
+    <row r="3" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1121,13 +1666,16 @@
         <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F3" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>5</v>
       </c>
@@ -1137,807 +1685,1190 @@
       <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="5"/>
+      <c r="D4" s="26"/>
       <c r="E4" s="5"/>
-    </row>
-    <row r="5" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D5" s="5">
-        <v>1</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="5"/>
+      <c r="D6" s="26"/>
       <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="5">
-        <v>1</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D7" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D8" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
       <c r="B9" s="14"/>
       <c r="C9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="5">
-        <v>1</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D9" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14"/>
       <c r="B10" s="14"/>
       <c r="C10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="5">
-        <v>1</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D10" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14"/>
       <c r="B11" s="14"/>
       <c r="C11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="5">
-        <v>1</v>
-      </c>
-      <c r="E11" s="5" t="s">
+      <c r="D11" s="27" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E11" s="5">
+        <v>1</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14"/>
       <c r="B12" s="14"/>
       <c r="C12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="5">
-        <v>1</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D12" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14"/>
       <c r="B13" s="14"/>
       <c r="C13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="5"/>
+      <c r="D13" s="26"/>
       <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14"/>
       <c r="B14" s="14"/>
       <c r="C14" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="5"/>
+      <c r="D14" s="28"/>
       <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14"/>
       <c r="B15" s="14"/>
       <c r="C15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="5">
-        <v>1</v>
-      </c>
-      <c r="E15" s="5" t="s">
+      <c r="D15" s="27" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E15" s="5">
+        <v>1</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14"/>
       <c r="B16" s="14"/>
       <c r="C16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="5">
-        <v>1</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D16" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="5">
+        <v>1</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="14"/>
       <c r="B17" s="14"/>
       <c r="C17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="5">
-        <v>1</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D17" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17" s="5">
+        <v>1</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14"/>
       <c r="B18" s="14"/>
       <c r="C18" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="5"/>
+      <c r="D18" s="29"/>
       <c r="E18" s="5"/>
-    </row>
-    <row r="19" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="14"/>
       <c r="B19" s="14"/>
       <c r="C19" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="5">
-        <v>1</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D19" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" s="5">
+        <v>1</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="14"/>
       <c r="B20" s="14"/>
       <c r="C20" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="5">
-        <v>1</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D20" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" s="5">
+        <v>1</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="14"/>
       <c r="B21" s="14"/>
       <c r="C21" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="5">
-        <v>1</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D21" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="E21" s="5">
+        <v>1</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14"/>
       <c r="B22" s="14"/>
       <c r="C22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="5">
-        <v>1</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
-      <c r="C23" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="5"/>
+      <c r="C23" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>91</v>
+      </c>
       <c r="E23" s="5"/>
-    </row>
-    <row r="24" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F23" s="20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="14"/>
       <c r="B24" s="14"/>
       <c r="C24" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="5">
-        <v>1</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="E24" s="5">
+        <v>1</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="14"/>
       <c r="B25" s="14"/>
-      <c r="C25" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" s="5">
-        <v>1</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C25" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="28"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="20"/>
+    </row>
+    <row r="26" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="14"/>
       <c r="B26" s="14"/>
       <c r="C26" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D26" s="5">
-        <v>1</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="E26" s="5">
+        <v>1</v>
+      </c>
+      <c r="F26" s="21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
       <c r="C27" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D27" s="5">
-        <v>1</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+      <c r="D27" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="E27" s="5">
+        <v>1</v>
+      </c>
+      <c r="F27" s="21"/>
+    </row>
+    <row r="28" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
       <c r="C28" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D28" s="5">
-        <v>1</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="E28" s="5">
+        <v>1</v>
+      </c>
+      <c r="F28" s="21"/>
+    </row>
+    <row r="29" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
-      <c r="C29" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-    </row>
-    <row r="30" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C29" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="E29" s="5">
+        <v>1</v>
+      </c>
+      <c r="F29" s="21"/>
+    </row>
+    <row r="30" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="14"/>
       <c r="B30" s="14"/>
       <c r="C30" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D30" s="5">
-        <v>1</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+      <c r="D30" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="E30" s="5">
+        <v>1</v>
+      </c>
+      <c r="F30" s="21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="14"/>
       <c r="B31" s="14"/>
       <c r="C31" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D31" s="5">
-        <v>1</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+      <c r="D31" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="E31" s="5">
+        <v>1</v>
+      </c>
+      <c r="F31" s="21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="14"/>
       <c r="B32" s="14"/>
       <c r="C32" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D32" s="5">
-        <v>1</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+      <c r="D32" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="E32" s="5">
+        <v>1</v>
+      </c>
+      <c r="F32" s="21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="14"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D33" s="5">
-        <v>1</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="14"/>
+      <c r="C33" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" s="28"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+    </row>
+    <row r="34" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="14"/>
-      <c r="B34" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-    </row>
-    <row r="35" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="14"/>
+      <c r="C34" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="E34" s="5">
+        <v>1</v>
+      </c>
+      <c r="F34" s="22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="14"/>
       <c r="C35" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D35" s="5">
-        <v>1</v>
-      </c>
-      <c r="E35" s="5"/>
-    </row>
-    <row r="36" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+      <c r="D35" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="E35" s="5">
+        <v>1</v>
+      </c>
+      <c r="F35" s="22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="14"/>
       <c r="B36" s="14"/>
       <c r="C36" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D36" s="5">
-        <v>1</v>
-      </c>
-      <c r="E36" s="5"/>
-    </row>
-    <row r="37" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="D36" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="E36" s="5">
+        <v>1</v>
+      </c>
+      <c r="F36" s="22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="14"/>
       <c r="B37" s="14"/>
       <c r="C37" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D37" s="5">
-        <v>1</v>
+        <v>103</v>
+      </c>
+      <c r="D37" s="27" t="s">
+        <v>101</v>
       </c>
       <c r="E37" s="5"/>
-    </row>
-    <row r="38" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F37" s="22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="14"/>
-      <c r="B38" s="14"/>
+      <c r="B38" s="15"/>
       <c r="C38" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D38" s="5">
-        <v>1</v>
-      </c>
-      <c r="E38" s="5"/>
-    </row>
-    <row r="39" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+      <c r="D38" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="E38" s="5">
+        <v>1</v>
+      </c>
+      <c r="F38" s="22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="14"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D39" s="5">
-        <v>1</v>
-      </c>
+      <c r="B39" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D39" s="26"/>
       <c r="E39" s="5"/>
-    </row>
-    <row r="40" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F39" s="5"/>
+    </row>
+    <row r="40" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="14"/>
       <c r="B40" s="14"/>
       <c r="C40" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D40" s="5">
-        <v>1</v>
-      </c>
-      <c r="E40" s="5"/>
-    </row>
-    <row r="41" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="D40" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="E40" s="5">
+        <v>1</v>
+      </c>
+      <c r="F40" s="20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="14"/>
       <c r="B41" s="14"/>
       <c r="C41" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D41" s="5">
-        <v>1</v>
-      </c>
-      <c r="E41" s="5"/>
-    </row>
-    <row r="42" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="D41" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="E41" s="5">
+        <v>1</v>
+      </c>
+      <c r="F41" s="20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="14"/>
       <c r="B42" s="14"/>
       <c r="C42" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D42" s="5">
-        <v>1</v>
-      </c>
-      <c r="E42" s="5"/>
-    </row>
-    <row r="43" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+      <c r="D42" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="E42" s="5">
+        <v>1</v>
+      </c>
+      <c r="F42" s="20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="14"/>
       <c r="B43" s="14"/>
-      <c r="C43" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-    </row>
-    <row r="44" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C43" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D43" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="E43" s="5">
+        <v>1</v>
+      </c>
+      <c r="F43" s="20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="14"/>
       <c r="B44" s="14"/>
-      <c r="C44" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-    </row>
-    <row r="45" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C44" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D44" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="E44" s="5">
+        <v>1</v>
+      </c>
+      <c r="F44" s="20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="14"/>
       <c r="B45" s="14"/>
       <c r="C45" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D45" s="5">
-        <v>1</v>
-      </c>
-      <c r="E45" s="5"/>
-    </row>
-    <row r="46" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="D45" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="E45" s="5">
+        <v>1</v>
+      </c>
+      <c r="F45" s="20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="14"/>
       <c r="B46" s="14"/>
       <c r="C46" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D46" s="5">
-        <v>1</v>
-      </c>
-      <c r="E46" s="5"/>
-    </row>
-    <row r="47" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+      <c r="D46" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="E46" s="5">
+        <v>1</v>
+      </c>
+      <c r="F46" s="20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="14"/>
       <c r="B47" s="14"/>
       <c r="C47" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D47" s="5">
-        <v>1</v>
-      </c>
-      <c r="E47" s="5"/>
-    </row>
-    <row r="48" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+      <c r="D47" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="E47" s="5">
+        <v>1</v>
+      </c>
+      <c r="F47" s="20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="14"/>
       <c r="B48" s="14"/>
       <c r="C48" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D48" s="5">
-        <v>1</v>
-      </c>
-      <c r="E48" s="5"/>
-    </row>
-    <row r="49" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+      <c r="D48" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="E48" s="5">
+        <v>1</v>
+      </c>
+      <c r="F48" s="20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="14"/>
       <c r="B49" s="14"/>
       <c r="C49" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D49" s="5">
-        <v>1</v>
-      </c>
-      <c r="E49" s="5"/>
-    </row>
-    <row r="50" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+      <c r="D49" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="E49" s="5">
+        <v>1</v>
+      </c>
+      <c r="F49" s="20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="14"/>
       <c r="B50" s="14"/>
       <c r="C50" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D50" s="5">
-        <v>1</v>
-      </c>
-      <c r="E50" s="5"/>
-    </row>
-    <row r="51" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+      <c r="D50" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="E50" s="5">
+        <v>1</v>
+      </c>
+      <c r="F50" s="20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="14"/>
       <c r="B51" s="14"/>
-      <c r="C51" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D51" s="5">
-        <v>1</v>
-      </c>
+      <c r="C51" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D51" s="26"/>
       <c r="E51" s="5"/>
-    </row>
-    <row r="52" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F51" s="5"/>
+    </row>
+    <row r="52" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="14"/>
       <c r="B52" s="14"/>
-      <c r="C52" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D52" s="5">
-        <v>1</v>
-      </c>
+      <c r="C52" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D52" s="28"/>
       <c r="E52" s="5"/>
-    </row>
-    <row r="53" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F52" s="5"/>
+    </row>
+    <row r="53" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="14"/>
       <c r="B53" s="14"/>
-      <c r="C53" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-    </row>
-    <row r="54" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C53" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D53" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="E53" s="5">
+        <v>1</v>
+      </c>
+      <c r="F53" s="22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="14"/>
       <c r="B54" s="14"/>
       <c r="C54" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D54" s="5">
-        <v>1</v>
-      </c>
-      <c r="E54" s="5"/>
-    </row>
-    <row r="55" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="D54" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="E54" s="5">
+        <v>1</v>
+      </c>
+      <c r="F54" s="22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="14"/>
       <c r="B55" s="14"/>
       <c r="C55" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D55" s="5">
-        <v>1</v>
-      </c>
-      <c r="E55" s="5"/>
-    </row>
-    <row r="56" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+      <c r="D55" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="E55" s="5">
+        <v>1</v>
+      </c>
+      <c r="F55" s="22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="14"/>
       <c r="B56" s="14"/>
       <c r="C56" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D56" s="5">
-        <v>1</v>
-      </c>
-      <c r="E56" s="5"/>
-    </row>
-    <row r="57" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+      <c r="D56" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="E56" s="5">
+        <v>1</v>
+      </c>
+      <c r="F56" s="22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="14"/>
       <c r="B57" s="14"/>
       <c r="C57" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D57" s="5">
-        <v>1</v>
-      </c>
-      <c r="E57" s="5"/>
-    </row>
-    <row r="58" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+      <c r="D57" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="E57" s="5">
+        <v>1</v>
+      </c>
+      <c r="F57" s="22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="14"/>
       <c r="B58" s="14"/>
-      <c r="C58" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-    </row>
-    <row r="59" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C58" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D58" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="E58" s="5">
+        <v>1</v>
+      </c>
+      <c r="F58" s="21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="14"/>
       <c r="B59" s="14"/>
       <c r="C59" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D59" s="5">
-        <v>1</v>
-      </c>
-      <c r="E59" s="5"/>
-    </row>
-    <row r="60" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+      <c r="D59" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="E59" s="5">
+        <v>1</v>
+      </c>
+      <c r="F59" s="21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="14"/>
       <c r="B60" s="14"/>
-      <c r="C60" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D60" s="5">
-        <v>1</v>
-      </c>
+      <c r="C60" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D60" s="28"/>
       <c r="E60" s="5"/>
-    </row>
-    <row r="61" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F60" s="21"/>
+    </row>
+    <row r="61" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="14"/>
       <c r="B61" s="14"/>
       <c r="C61" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D61" s="5">
-        <v>1</v>
-      </c>
-      <c r="E61" s="5"/>
-    </row>
-    <row r="62" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+      <c r="D61" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="E61" s="5">
+        <v>1</v>
+      </c>
+      <c r="F61" s="21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="14"/>
       <c r="B62" s="14"/>
       <c r="C62" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D62" s="5">
-        <v>1</v>
-      </c>
-      <c r="E62" s="5"/>
-    </row>
-    <row r="63" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="D62" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="E62" s="5">
+        <v>1</v>
+      </c>
+      <c r="F62" s="21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="14"/>
       <c r="B63" s="14"/>
       <c r="C63" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D63" s="5">
-        <v>1</v>
-      </c>
-      <c r="E63" s="5"/>
-    </row>
-    <row r="64" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+      <c r="D63" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="E63" s="5">
+        <v>1</v>
+      </c>
+      <c r="F63" s="21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="14"/>
       <c r="B64" s="14"/>
       <c r="C64" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D64" s="5">
-        <v>1</v>
-      </c>
-      <c r="E64" s="5"/>
-    </row>
-    <row r="65" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="15"/>
-      <c r="B65" s="15"/>
-      <c r="C65" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D65" s="5">
-        <v>1</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="D64" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="E64" s="5">
+        <v>1</v>
+      </c>
+      <c r="F64" s="21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="14"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D65" s="28"/>
       <c r="E65" s="5"/>
-    </row>
-    <row r="66" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B66" s="16" t="s">
-        <v>66</v>
-      </c>
+      <c r="F65" s="21"/>
+    </row>
+    <row r="66" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="14"/>
+      <c r="B66" s="14"/>
       <c r="C66" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D66" s="5">
-        <v>1</v>
-      </c>
-      <c r="E66" s="5"/>
-    </row>
-    <row r="67" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="D66" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="E66" s="5">
+        <v>1</v>
+      </c>
+      <c r="F66" s="21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="14"/>
       <c r="B67" s="14"/>
       <c r="C67" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D67" s="5">
-        <v>1</v>
-      </c>
-      <c r="E67" s="5"/>
-    </row>
-    <row r="68" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+      <c r="D67" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="E67" s="5">
+        <v>1</v>
+      </c>
+      <c r="F67" s="21"/>
+    </row>
+    <row r="68" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="14"/>
       <c r="B68" s="14"/>
       <c r="C68" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D68" s="5">
-        <v>1</v>
-      </c>
-      <c r="E68" s="5"/>
-    </row>
-    <row r="69" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+      <c r="D68" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="E68" s="5">
+        <v>1</v>
+      </c>
+      <c r="F68" s="21"/>
+    </row>
+    <row r="69" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="14"/>
       <c r="B69" s="14"/>
-      <c r="C69" s="6" t="s">
+      <c r="C69" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D69" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="E69" s="5">
+        <v>1</v>
+      </c>
+      <c r="F69" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="D69" s="5">
-        <v>8</v>
-      </c>
-      <c r="E69" s="5"/>
-    </row>
-    <row r="70" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="14"/>
       <c r="B70" s="14"/>
-      <c r="C70" s="6" t="s">
+      <c r="C70" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D70" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="E70" s="5">
+        <v>1</v>
+      </c>
+      <c r="F70" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="D70" s="5">
-        <v>4</v>
-      </c>
-      <c r="E70" s="5"/>
-    </row>
-    <row r="71" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="14"/>
       <c r="B71" s="14"/>
-      <c r="C71" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D71" s="5">
+      <c r="C71" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D71" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="E71" s="5">
+        <v>1</v>
+      </c>
+      <c r="F71" s="20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="14"/>
+      <c r="B72" s="14"/>
+      <c r="C72" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D72" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="E72" s="5">
+        <v>1</v>
+      </c>
+      <c r="F72" s="20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="14"/>
+      <c r="B73" s="14"/>
+      <c r="C73" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D73" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="E73" s="5">
+        <v>1</v>
+      </c>
+      <c r="F73" s="22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="15"/>
+      <c r="B74" s="15"/>
+      <c r="C74" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D74" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="E74" s="5">
+        <v>1</v>
+      </c>
+      <c r="F74" s="22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B75" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D75" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="E75" s="5">
+        <v>1</v>
+      </c>
+      <c r="F75" s="21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="14"/>
+      <c r="B76" s="14"/>
+      <c r="C76" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D76" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="E76" s="5">
+        <v>1</v>
+      </c>
+      <c r="F76" s="5"/>
+    </row>
+    <row r="77" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="14"/>
+      <c r="B77" s="14"/>
+      <c r="C77" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D77" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="E77" s="5">
+        <v>1</v>
+      </c>
+      <c r="F77" s="5"/>
+    </row>
+    <row r="78" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="14"/>
+      <c r="B78" s="14"/>
+      <c r="C78" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D78" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="E78" s="5">
         <v>8</v>
       </c>
-      <c r="E71" s="5"/>
-    </row>
-    <row r="72" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="15"/>
-      <c r="B72" s="15"/>
-      <c r="C72" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D72" s="5">
+      <c r="F78" s="5"/>
+    </row>
+    <row r="79" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="14"/>
+      <c r="B79" s="14"/>
+      <c r="C79" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D79" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="E79" s="5">
+        <v>4</v>
+      </c>
+      <c r="F79" s="5"/>
+    </row>
+    <row r="80" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="14"/>
+      <c r="B80" s="14"/>
+      <c r="C80" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D80" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="E80" s="5">
+        <v>8</v>
+      </c>
+      <c r="F80" s="5"/>
+    </row>
+    <row r="81" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="15"/>
+      <c r="B81" s="15"/>
+      <c r="C81" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D81" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="E81" s="5">
         <v>7</v>
       </c>
-      <c r="E72" s="5"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A73" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B73" s="3"/>
-      <c r="C73" s="3"/>
-      <c r="D73" s="9">
-        <f>SUM(D5:D72)</f>
-        <v>79</v>
-      </c>
-      <c r="E73" s="5"/>
+      <c r="F81" s="5"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="B82" s="24"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="8">
+        <f>SUM(E5:E81)</f>
+        <v>85</v>
+      </c>
+      <c r="F82" s="5"/>
+    </row>
+    <row r="83" spans="1:6" ht="61" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="B83" s="25"/>
+      <c r="C83" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="D83" s="31"/>
+      <c r="E83" s="31"/>
+      <c r="F83" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A4:A65"/>
-    <mergeCell ref="B4:B33"/>
-    <mergeCell ref="B34:B65"/>
-    <mergeCell ref="A66:A72"/>
-    <mergeCell ref="B66:B72"/>
+  <mergeCells count="11">
+    <mergeCell ref="C83:F83"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A4:A74"/>
+    <mergeCell ref="B4:B38"/>
+    <mergeCell ref="B39:B74"/>
+    <mergeCell ref="A75:A81"/>
+    <mergeCell ref="B75:B81"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C2:F2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
